--- a/results/I3_N5_M2_T30_C100_DepCentral_s4_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.442587276615</v>
+        <v>2086.259797846831</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.8420312143451</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.635341063784722</v>
+        <v>11.10908945291819</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.495897126050805</v>
+        <v>4.633196485827958</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1354.710000000003</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.03</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,61 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.46902814888773</v>
+        <v>22.74451170626076</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.384048268047589</v>
+        <v>13.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>14.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>20.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.28505371695348</v>
+        <v>25.56053727432651</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.96623907878365</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1157,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1171,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1185,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1196,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1216,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1230,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1244,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1258,9 +1203,23 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>222.5750000000006</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>226.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>227.3200000000005</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>223.2100000000005</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>211.55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>61.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09000000000066</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>66.09000000000066</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>62.81000000000066</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.53</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>115.89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>114.45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>117.09</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>110.24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>114.5800000000005</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>120.9900000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6550000000004</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>118.7050000000004</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.9450000000004</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>222.5750000000006</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>226.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>227.3200000000005</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>223.2100000000005</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>211.55</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>115.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>117.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>110.24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>122.5750000000006</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>126.5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>127.3200000000005</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>123.2100000000005</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>111.55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.530000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.24000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2208,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2304,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2315,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2326,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2337,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2345,10 +2304,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2359,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2370,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2381,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2392,9 +2351,20 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
